--- a/main_script/output/table_3.xlsx
+++ b/main_script/output/table_3.xlsx
@@ -14,106 +14,114 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>500.000 MHz|
-8737 48</t>
-  </si>
-  <si>
-    <t>500.000 MHz|</t>
-  </si>
-  <si>
-    <t>8737 48</t>
-  </si>
-  <si>
-    <t>1878.201 K|</t>
-  </si>
-  <si>
-    <t>16.818</t>
-  </si>
-  <si>
-    <t>1000 GHz</t>
-  </si>
-  <si>
-    <t>9.057</t>
-  </si>
-  <si>
-    <t>K|</t>
-  </si>
-  <si>
-    <t>16.641 dB|</t>
-  </si>
-  <si>
-    <t>1.600 GHz</t>
-  </si>
-  <si>
-    <t>8702 dB</t>
-  </si>
-  <si>
-    <t>1860 689 K|</t>
-  </si>
-  <si>
-    <t>17.327</t>
-  </si>
-  <si>
-    <t>2 000</t>
-  </si>
-  <si>
-    <t>8855 dB</t>
-  </si>
-  <si>
-    <t>1937 836</t>
-  </si>
-  <si>
-    <t>18.436 dB]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+  <si>
+    <t>NF
+RI
+500.000MHz
+8 737 dB</t>
+  </si>
+  <si>
+    <t>Noise lemp</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>500.000MHz</t>
+  </si>
+  <si>
+    <t>8 737 dB</t>
+  </si>
+  <si>
+    <t>1878.201 K</t>
+  </si>
+  <si>
+    <t>16.818 dB</t>
+  </si>
+  <si>
+    <t>1 000 GHz</t>
+  </si>
+  <si>
+    <t>9.057 dB</t>
+  </si>
+  <si>
+    <t>2044.160 K</t>
+  </si>
+  <si>
+    <t>16.641 d9</t>
+  </si>
+  <si>
+    <t>1.500GHz</t>
+  </si>
+  <si>
+    <t>8 702 dB</t>
+  </si>
+  <si>
+    <t>1860689K</t>
+  </si>
+  <si>
+    <t>17.327dB</t>
+  </si>
+  <si>
+    <t>2 000 GHz</t>
+  </si>
+  <si>
+    <t>8 855 dB</t>
+  </si>
+  <si>
+    <t>1937 835 K</t>
+  </si>
+  <si>
+    <t>18.436dB</t>
   </si>
   <si>
     <t>2.500 GHz</t>
   </si>
   <si>
-    <t>561 dB|</t>
-  </si>
-  <si>
-    <t>1792 027 K|</t>
-  </si>
-  <si>
-    <t>19.549 da</t>
-  </si>
-  <si>
-    <t>GHz|</t>
-  </si>
-  <si>
-    <t>6898 de</t>
-  </si>
-  <si>
-    <t>1960 021</t>
-  </si>
-  <si>
-    <t>20-393</t>
-  </si>
-  <si>
-    <t>3.500</t>
-  </si>
-  <si>
-    <t>8507 dB</t>
-  </si>
-  <si>
-    <t>1766 580</t>
-  </si>
-  <si>
-    <t>22 263</t>
-  </si>
-  <si>
-    <t>4.000</t>
-  </si>
-  <si>
-    <t>9830 dB</t>
-  </si>
-  <si>
-    <t>K]</t>
-  </si>
-  <si>
-    <t>18 050 dB|</t>
+    <t>0561 dB</t>
+  </si>
+  <si>
+    <t>1792027</t>
+  </si>
+  <si>
+    <t>19.549d8</t>
+  </si>
+  <si>
+    <t>3 000 GHz</t>
+  </si>
+  <si>
+    <t>8898 dB</t>
+  </si>
+  <si>
+    <t>1960021 K</t>
+  </si>
+  <si>
+    <t>20393</t>
+  </si>
+  <si>
+    <t>3.500 GHz</t>
+  </si>
+  <si>
+    <t>8 507 dB</t>
+  </si>
+  <si>
+    <t>1766 580 K</t>
+  </si>
+  <si>
+    <t>22 253 dB</t>
+  </si>
+  <si>
+    <t>4.000 GHz</t>
+  </si>
+  <si>
+    <t>9830dB</t>
+  </si>
+  <si>
+    <t>2498.564 K</t>
+  </si>
+  <si>
+    <t>18050dB</t>
   </si>
 </sst>
 </file>
@@ -469,10 +477,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -480,119 +488,123 @@
         <v>0</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>
